--- a/biology/Zoologie/Consul_panariste/Consul_panariste.xlsx
+++ b/biology/Zoologie/Consul_panariste/Consul_panariste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consul panariste est une espèce d'insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Charaxinae et du genre Consul.
 </t>
@@ -511,17 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Consul panariste a été décrit par William Chapman Hewitson en 1856 sous le nom initial de Paphia panariste.
-Synonyme : Anaea panariste[1].
-Noms vernaculaires
-Consul panariste jansoni se nomme Blackened Leafwing en anglais[2].
-Sous-espèces
-Consul panariste panariste ; présent en Colombie.
-Consul panariste jansoni (Salvin, 1871) ; présent au Guatemala, au Nicaragua, au Costa Rica, à Panama.
-Consul panariste ludmilla (Fassl, 1912) ; présent en Colombie et au Venezuela.
-Consul panariste pandrosa (Niepelt, 1927) ; présent dans l'ouest de la Colombie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consul panariste a été décrit par William Chapman Hewitson en 1856 sous le nom initial de Paphia panariste.
+Synonyme : Anaea panariste.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +554,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consul panariste jansoni se nomme Blackened Leafwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Consul_panariste</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_panariste</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Consul panariste panariste ; présent en Colombie.
+Consul panariste jansoni (Salvin, 1871) ; présent au Guatemala, au Nicaragua, au Costa Rica, à Panama.
+Consul panariste ludmilla (Fassl, 1912) ; présent en Colombie et au Venezuela.
+Consul panariste pandrosa (Niepelt, 1927) ; présent dans l'ouest de la Colombie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Consul_panariste</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_panariste</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Consul panariste est un papillon aux ailes antérieures à bord costal bossu, apex pointu en crochet et aux ailes postérieures munies d'une queue en massue et d'une amorce de queue à l'angle anal.
 Le dessus des ailes antérieures est noir avec une ligne submarginale de taches jaune d'or. Le dessus des ailes postérieures est cuivre, jaune dans la partie submarginale en contact avec la marge noire.
@@ -558,70 +644,148 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Consul_panariste</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Consul_panariste</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Consul_panariste</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_panariste</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est un Piper, Piper reticulatum[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est un Piper, Piper reticulatum.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Consul_panariste</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Consul_panariste</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Consul_panariste</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_panariste</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consul panariste est présent au Guatemala, au Nicaragua, au Costa Rica, à Panama, en Colombie et au Venezuela[1].
-Biotope
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consul panariste est présent au Guatemala, au Nicaragua, au Costa Rica, à Panama, en Colombie et au Venezuela.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Consul_panariste</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_panariste</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Consul panariste, sur Wikimedia CommonsConsul panariste, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Consul_panariste</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consul_panariste</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
